--- a/src/fisher_lda.xlsx
+++ b/src/fisher_lda.xlsx
@@ -13,7 +13,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="30">
+  <si>
+    <t>Normalization function</t>
+  </si>
+  <si>
+    <t>zscore</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>F-measure</t>
+  </si>
   <si>
     <t>Normalization function</t>
   </si>
@@ -123,7 +153,7 @@
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="true"/>
     <col min="2" max="2" width="5.5703125" customWidth="true"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" customWidth="true"/>
     <col min="4" max="4" width="12.7109375" customWidth="true"/>
     <col min="5" max="5" width="12.7109375" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
@@ -132,655 +162,655 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0">
-        <v>8.6100628930817606</v>
+        <v>11.628930817610064</v>
       </c>
       <c r="D2" s="0">
-        <v>0.64150943396226412</v>
+        <v>0.65408805031446537</v>
       </c>
       <c r="E2" s="0">
-        <v>0.33333333333333331</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="F2" s="0">
-        <v>0.67361111111111116</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="G2" s="0">
-        <v>0.77290836653386463</v>
+        <v>0.77551020408163251</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0">
         <v>0.056603773584905662</v>
       </c>
       <c r="D3" s="0">
-        <v>0.95597484276729561</v>
+        <v>0.94339622641509435</v>
       </c>
       <c r="E3" s="0">
-        <v>0.81818181818181823</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="F3" s="0">
-        <v>0.96621621621621623</v>
+        <v>0.95945945945945943</v>
       </c>
       <c r="G3" s="0">
-        <v>0.97610921501706482</v>
+        <v>0.96928327645051193</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
-        <v>17.666666666666668</v>
+        <v>15.10062893081761</v>
       </c>
       <c r="D4" s="0">
-        <v>0.62893081761006286</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E4" s="0">
-        <v>0.80000000000000004</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="F4" s="0">
-        <v>0.61111111111111116</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="G4" s="0">
-        <v>0.74893617021276593</v>
+        <v>0.77824267782426781</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
-        <v>19.723270440251572</v>
+        <v>21.157232704402517</v>
       </c>
       <c r="D5" s="0">
-        <v>0.58490566037735847</v>
+        <v>0.57232704402515722</v>
       </c>
       <c r="E5" s="0">
         <v>0.73684210526315785</v>
       </c>
       <c r="F5" s="0">
-        <v>0.56428571428571428</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G5" s="0">
-        <v>0.70535714285714279</v>
+        <v>0.69369369369369371</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
-        <v>12.735849056603774</v>
+        <v>13.89308176100629</v>
       </c>
       <c r="D6" s="0">
-        <v>0.67924528301886788</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E6" s="0">
         <v>0.76923076923076927</v>
       </c>
       <c r="F6" s="0">
-        <v>0.67123287671232879</v>
+        <v>0.65753424657534243</v>
       </c>
       <c r="G6" s="0">
-        <v>0.79352226720647778</v>
+        <v>0.78367346938775506</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
-        <v>9.566037735849056</v>
+        <v>8.6100628930817606</v>
       </c>
       <c r="D7" s="0">
-        <v>0.72955974842767291</v>
+        <v>0.74213836477987416</v>
       </c>
       <c r="E7" s="0">
         <v>0.8666666666666667</v>
       </c>
       <c r="F7" s="0">
-        <v>0.71527777777777779</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="G7" s="0">
-        <v>0.82730923694779113</v>
+        <v>0.83665338645418319</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
-        <v>0.15723270440251572</v>
+        <v>0.62893081761006286</v>
       </c>
       <c r="D8" s="0">
-        <v>0.89308176100628933</v>
+        <v>0.84905660377358494</v>
       </c>
       <c r="E8" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F8" s="0">
-        <v>0.92028985507246375</v>
+        <v>0.87681159420289856</v>
       </c>
       <c r="G8" s="0">
-        <v>0.93726937269372701</v>
+        <v>0.90977443609022557</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
-        <v>7.7044025157232703</v>
+        <v>9.0817610062893088</v>
       </c>
       <c r="D9" s="0">
-        <v>0.74213836477987416</v>
+        <v>0.69811320754716977</v>
       </c>
       <c r="E9" s="0">
-        <v>0.86363636363636365</v>
+        <v>0.77272727272727271</v>
       </c>
       <c r="F9" s="0">
-        <v>0.72262773722627738</v>
+        <v>0.68613138686131392</v>
       </c>
       <c r="G9" s="0">
-        <v>0.82845188284518834</v>
+        <v>0.79661016949152541</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
-        <v>25.761006289308177</v>
+        <v>24.962264150943398</v>
       </c>
       <c r="D10" s="0">
-        <v>0.54716981132075471</v>
+        <v>0.56603773584905659</v>
       </c>
       <c r="E10" s="0">
-        <v>0.76470588235294112</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="F10" s="0">
-        <v>0.52112676056338025</v>
+        <v>0.53521126760563376</v>
       </c>
       <c r="G10" s="0">
-        <v>0.67272727272727273</v>
+        <v>0.68778280542986425</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
-        <v>37.289308176100626</v>
+        <v>35.377358490566039</v>
       </c>
       <c r="D11" s="0">
-        <v>0.49056603773584906</v>
+        <v>0.50314465408805031</v>
       </c>
       <c r="E11" s="0">
         <v>0.81818181818181823</v>
       </c>
       <c r="F11" s="0">
-        <v>0.46621621621621623</v>
+        <v>0.47972972972972971</v>
       </c>
       <c r="G11" s="0">
-        <v>0.63013698630136994</v>
+        <v>0.64253393665158376</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
-        <v>4.9308176100628929</v>
+        <v>3.6226415094339623</v>
       </c>
       <c r="D12" s="0">
-        <v>0.74842767295597479</v>
+        <v>0.72327044025157228</v>
       </c>
       <c r="E12" s="0">
-        <v>0.72727272727272729</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="F12" s="0">
         <v>0.75182481751824815</v>
       </c>
       <c r="G12" s="0">
-        <v>0.83739837398373973</v>
+        <v>0.82399999999999995</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
-        <v>0</v>
+        <v>0.0062893081761006293</v>
       </c>
       <c r="D13" s="0">
-        <v>0.96226415094339623</v>
+        <v>0.96855345911949686</v>
       </c>
       <c r="E13" s="0">
         <v>0.75</v>
       </c>
       <c r="F13" s="0">
-        <v>0.97959183673469385</v>
+        <v>0.98639455782312924</v>
       </c>
       <c r="G13" s="0">
-        <v>0.97959183673469385</v>
+        <v>0.98305084745762705</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
-        <v>37.289308176100626</v>
+        <v>33.515723270440255</v>
       </c>
       <c r="D14" s="0">
-        <v>0.49056603773584906</v>
+        <v>0.45283018867924529</v>
       </c>
       <c r="E14" s="0">
-        <v>0.8666666666666667</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="F14" s="0">
-        <v>0.4513888888888889</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="G14" s="0">
-        <v>0.61611374407582942</v>
+        <v>0.59534883720930243</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
-        <v>34.440251572327043</v>
+        <v>36.327044025157235</v>
       </c>
       <c r="D15" s="0">
-        <v>0.49685534591194969</v>
+        <v>0.48427672955974843</v>
       </c>
       <c r="E15" s="0">
         <v>0.82352941176470584</v>
       </c>
       <c r="F15" s="0">
-        <v>0.45774647887323944</v>
+        <v>0.44366197183098594</v>
       </c>
       <c r="G15" s="0">
-        <v>0.61904761904761907</v>
+        <v>0.60576923076923073</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
-        <v>44.377358490566039</v>
+        <v>46.515723270440255</v>
       </c>
       <c r="D16" s="0">
         <v>0.44654088050314467</v>
       </c>
       <c r="E16" s="0">
-        <v>0.88235294117647056</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="F16" s="0">
-        <v>0.39436619718309857</v>
+        <v>0.38732394366197181</v>
       </c>
       <c r="G16" s="0">
-        <v>0.55999999999999994</v>
+        <v>0.55555555555555547</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
         <v>3.9308176100628929</v>
       </c>
       <c r="D17" s="0">
-        <v>0.77987421383647804</v>
+        <v>0.74213836477987416</v>
       </c>
       <c r="E17" s="0">
-        <v>0.73684210526315785</v>
+        <v>0.57894736842105265</v>
       </c>
       <c r="F17" s="0">
-        <v>0.7857142857142857</v>
+        <v>0.76428571428571423</v>
       </c>
       <c r="G17" s="0">
-        <v>0.86274509803921562</v>
+        <v>0.83921568627450971</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
-        <v>0.76100628930817615</v>
+        <v>0.62893081761006286</v>
       </c>
       <c r="D18" s="0">
-        <v>0.89308176100628933</v>
+        <v>0.87421383647798745</v>
       </c>
       <c r="E18" s="0">
-        <v>0.72727272727272729</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="F18" s="0">
-        <v>0.90540540540540537</v>
+        <v>0.89864864864864868</v>
       </c>
       <c r="G18" s="0">
-        <v>0.94035087719298238</v>
+        <v>0.93006993006993011</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0">
-        <v>24.962264150943398</v>
+        <v>29.081761006289309</v>
       </c>
       <c r="D19" s="0">
-        <v>0.60377358490566035</v>
+        <v>0.57232704402515722</v>
       </c>
       <c r="E19" s="0">
         <v>1</v>
       </c>
       <c r="F19" s="0">
-        <v>0.56551724137931036</v>
+        <v>0.53103448275862064</v>
       </c>
       <c r="G19" s="0">
-        <v>0.72246696035242297</v>
+        <v>0.6936936936936936</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0">
-        <v>25.761006289308177</v>
+        <v>26.572327044025158</v>
       </c>
       <c r="D20" s="0">
-        <v>0.55974842767295596</v>
+        <v>0.55345911949685533</v>
       </c>
       <c r="E20" s="0">
         <v>0.83333333333333337</v>
       </c>
       <c r="F20" s="0">
-        <v>0.52482269503546097</v>
+        <v>0.51773049645390068</v>
       </c>
       <c r="G20" s="0">
-        <v>0.67889908256880727</v>
+        <v>0.67281105990783407</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0">
-        <v>10.572327044025156</v>
+        <v>4.2515723270440251</v>
       </c>
       <c r="D21" s="0">
-        <v>0.65408805031446537</v>
+        <v>0.76100628930817615</v>
       </c>
       <c r="E21" s="0">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F21" s="0">
-        <v>0.66896551724137931</v>
+        <v>0.77931034482758621</v>
       </c>
       <c r="G21" s="0">
-        <v>0.77911646586345373</v>
+        <v>0.85606060606060597</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0">
-        <v>6.0440251572327046</v>
+        <v>9.0817610062893088</v>
       </c>
       <c r="D22" s="0">
-        <v>0.70440251572327039</v>
+        <v>0.68553459119496851</v>
       </c>
       <c r="E22" s="0">
-        <v>0.46666666666666667</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="F22" s="0">
-        <v>0.72916666666666663</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="G22" s="0">
-        <v>0.81712062256809337</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0">
-        <v>0.22641509433962265</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="D23" s="0">
-        <v>0.94968553459119498</v>
+        <v>0.9308176100628931</v>
       </c>
       <c r="E23" s="0">
-        <v>0.61111111111111116</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="F23" s="0">
-        <v>0.99290780141843971</v>
+        <v>0.97872340425531912</v>
       </c>
       <c r="G23" s="0">
-        <v>0.97222222222222221</v>
+        <v>0.96167247386759569</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0">
-        <v>19.723270440251572</v>
+        <v>13.308176100628931</v>
       </c>
       <c r="D24" s="0">
-        <v>0.61006289308176098</v>
+        <v>0.67295597484276726</v>
       </c>
       <c r="E24" s="0">
         <v>0.83333333333333337</v>
       </c>
       <c r="F24" s="0">
-        <v>0.58156028368794321</v>
+        <v>0.65248226950354615</v>
       </c>
       <c r="G24" s="0">
-        <v>0.72566371681415931</v>
+        <v>0.77966101694915257</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0">
-        <v>15.10062893081761</v>
+        <v>28.232704402515722</v>
       </c>
       <c r="D25" s="0">
-        <v>0.64150943396226412</v>
+        <v>0.54088050314465408</v>
       </c>
       <c r="E25" s="0">
-        <v>0.63636363636363635</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="F25" s="0">
-        <v>0.64189189189189189</v>
+        <v>0.52702702702702697</v>
       </c>
       <c r="G25" s="0">
-        <v>0.76923076923076927</v>
+        <v>0.6812227074235806</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0">
-        <v>11.09433962264151</v>
+        <v>12.735849056603774</v>
       </c>
       <c r="D26" s="0">
-        <v>0.660377358490566</v>
+        <v>0.64150943396226412</v>
       </c>
       <c r="E26" s="0">
         <v>0.6470588235294118</v>
       </c>
       <c r="F26" s="0">
-        <v>0.6619718309859155</v>
+        <v>0.64084507042253525</v>
       </c>
       <c r="G26" s="0">
-        <v>0.77685950413223148</v>
+        <v>0.76150627615062771</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0">
-        <v>25.761006289308177</v>
+        <v>21.89308176100629</v>
       </c>
       <c r="D27" s="0">
-        <v>0.55974842767295596</v>
+        <v>0.5911949685534591</v>
       </c>
       <c r="E27" s="0">
         <v>0.72727272727272729</v>
       </c>
       <c r="F27" s="0">
-        <v>0.54729729729729726</v>
+        <v>0.58108108108108103</v>
       </c>
       <c r="G27" s="0">
-        <v>0.69827586206896552</v>
+        <v>0.72573839662447259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0">
-        <v>0.056603773584905662</v>
+        <v>0.76100628930817615</v>
       </c>
       <c r="D28" s="0">
-        <v>0.94339622641509435</v>
+        <v>0.91823899371069184</v>
       </c>
       <c r="E28" s="0">
-        <v>0.69999999999999996</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F28" s="0">
-        <v>0.95973154362416102</v>
+        <v>0.91946308724832215</v>
       </c>
       <c r="G28" s="0">
-        <v>0.96949152542372885</v>
+        <v>0.95470383275261317</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0">
-        <v>17.666666666666668</v>
+        <v>20.433962264150942</v>
       </c>
       <c r="D29" s="0">
-        <v>0.65408805031446537</v>
+        <v>0.64150943396226412</v>
       </c>
       <c r="E29" s="0">
-        <v>0.94736842105263153</v>
+        <v>1</v>
       </c>
       <c r="F29" s="0">
-        <v>0.61428571428571432</v>
+        <v>0.59285714285714286</v>
       </c>
       <c r="G29" s="0">
-        <v>0.75770925110132159</v>
+        <v>0.74439461883408065</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0">
-        <v>30.817610062893081</v>
+        <v>27.39622641509434</v>
       </c>
       <c r="D30" s="0">
-        <v>0.49685534591194969</v>
+        <v>0.53459119496855345</v>
       </c>
       <c r="E30" s="0">
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
       <c r="F30" s="0">
-        <v>0.47552447552447552</v>
+        <v>0.51048951048951052</v>
       </c>
       <c r="G30" s="0">
-        <v>0.62962962962962954</v>
+        <v>0.66363636363636369</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0">
-        <v>33.515723270440255</v>
+        <v>42.289308176100626</v>
       </c>
       <c r="D31" s="0">
-        <v>0.45283018867924529</v>
+        <v>0.39622641509433965</v>
       </c>
       <c r="E31" s="0">
         <v>0.70833333333333337</v>
       </c>
       <c r="F31" s="0">
-        <v>0.40740740740740738</v>
+        <v>0.34074074074074073</v>
       </c>
       <c r="G31" s="0">
-        <v>0.55837563451776651</v>
+        <v>0.4893617021276595</v>
       </c>
     </row>
   </sheetData>
